--- a/testcase/AssetsPath.xlsx
+++ b/testcase/AssetsPath.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1156">
   <si>
     <t>Avatar资源</t>
   </si>
@@ -1806,21 +1806,33 @@
     <t>rod_epic_020\rod_epic_020.prefab</t>
   </si>
   <si>
+    <t>新主线-沉稳之力鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_021\rod_epic_021.prefab</t>
+  </si>
+  <si>
     <t>XXX鱼竿</t>
   </si>
   <si>
-    <t>rod_epic_021\rod_epic_021.prefab</t>
-  </si>
-  <si>
     <t>rod_epic_022\rod_epic_022.prefab</t>
   </si>
   <si>
+    <t>新主线-新大陆鱼竿</t>
+  </si>
+  <si>
     <t>rod_epic_023\rod_epic_023.prefab</t>
   </si>
   <si>
+    <t>新主线初始-初心者鱼竿</t>
+  </si>
+  <si>
     <t>rod_epic_024\rod_epic_024.prefab</t>
   </si>
   <si>
+    <t>新主线-开拓者鱼竿</t>
+  </si>
+  <si>
     <t>传奇鱼竿</t>
   </si>
   <si>
@@ -1977,6 +1989,9 @@
     <t>rod_legendary_028\rod_legendary_028.prefab</t>
   </si>
   <si>
+    <t>新主线-迅捷红鱼竿</t>
+  </si>
+  <si>
     <t>rod_legendary_029\rod_legendary_029.prefab</t>
   </si>
   <si>
@@ -2001,6 +2016,9 @@
     <t>rod_legendary_033\rod_legendary_033.prefab</t>
   </si>
   <si>
+    <t>新主线-强壮红鱼竿</t>
+  </si>
+  <si>
     <t>rod_legendary_034\rod_legendary_034.prefab</t>
   </si>
   <si>
@@ -2010,6 +2028,9 @@
     <t>rod_legendary_035\rod_legendary_035.prefab</t>
   </si>
   <si>
+    <t>新主线-多变红鱼竿</t>
+  </si>
+  <si>
     <t>rod_legendary_037\rod_legendary_037.prefab</t>
   </si>
   <si>
@@ -2064,18 +2085,27 @@
     <t>outward_ornament_epic_006\outward_ornament_epic_006.prefab</t>
   </si>
   <si>
-    <t>还未出的XXX挂件</t>
+    <t>集5猫-浮潜猫挂件</t>
   </si>
   <si>
     <t>outward_ornament_epic_007\outward_ornament_epic_007.prefab</t>
   </si>
   <si>
+    <t>集5猫-冲浪猫挂件</t>
+  </si>
+  <si>
     <t>outward_ornament_epic_008\outward_ornament_epic_008.prefab</t>
   </si>
   <si>
+    <t>集5猫-游泳猫挂件</t>
+  </si>
+  <si>
     <t>outward_ornament_epic_009\outward_ornament_epic_009.prefab</t>
   </si>
   <si>
+    <t>集5猫-日光浴猫挂件</t>
+  </si>
+  <si>
     <t>outward_ornament_epic_010\outward_ornament_epic_010.prefab</t>
   </si>
   <si>
@@ -2091,6 +2121,21 @@
     <t>outward_ornament_epic_013\outward_ornament_epic_013.prefab</t>
   </si>
   <si>
+    <t>笑口重开鲈挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_014\outward_ornament_epic_014.prefab</t>
+  </si>
+  <si>
+    <t>爆米花小人挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_015\outward_ornament_epic_015.prefab</t>
+  </si>
+  <si>
+    <t>舞狮挂件</t>
+  </si>
+  <si>
     <t>outward_ornament_epic_018\outward_ornament_epic_018.prefab</t>
   </si>
   <si>
@@ -2107,6 +2152,9 @@
   </si>
   <si>
     <t>outward_ornament_legendary_002\outward_ornament_legendary_002.prefab</t>
+  </si>
+  <si>
+    <t>集5猫-划艇猫挂件</t>
   </si>
   <si>
     <t>outward_ornament_legendary_003\outward_ornament_legendary_003.prefab</t>
@@ -3268,13 +3316,13 @@
     <t>H02_Aquarium.unity</t>
   </si>
   <si>
-    <t>水族箱基础淡水背景</t>
+    <t>水族箱淡水默认背景</t>
   </si>
   <si>
     <t>H03_Aquarium.unity</t>
   </si>
   <si>
-    <t>水族箱基础海水背景</t>
+    <t>水族箱海水默认背景</t>
   </si>
   <si>
     <t>H04_Aquarium.unity</t>
@@ -3304,6 +3352,18 @@
     <t>H08_Aquarium.unity</t>
   </si>
   <si>
+    <t>H09_Aquarium.unity</t>
+  </si>
+  <si>
+    <t>水族箱海水姑苏水镜背景</t>
+  </si>
+  <si>
+    <t>H10_Aquarium.unity</t>
+  </si>
+  <si>
+    <t>水族箱淡水姑苏水镜背景</t>
+  </si>
+  <si>
     <t>U01_Fish_Showcase.unity</t>
   </si>
   <si>
@@ -3334,6 +3394,9 @@
     <t>U06_RodBait_Store_Showcase.unity</t>
   </si>
   <si>
+    <t>商城-装备外观引入的背景图</t>
+  </si>
+  <si>
     <t>U07_FishAlbum_Showcase.unity</t>
   </si>
   <si>
@@ -3352,9 +3415,6 @@
     <t>avatar外观页面</t>
   </si>
   <si>
-    <t>U09_Character_adjust.unity</t>
-  </si>
-  <si>
     <t>U10_Character_Show.unity</t>
   </si>
   <si>
@@ -3380,6 +3440,36 @@
   </si>
   <si>
     <t>鱼竿以及鱼竿皮肤展示页面（比如武士刀鱼竿动画页面特览）</t>
+  </si>
+  <si>
+    <t>U15_MainStage_Result.unity</t>
+  </si>
+  <si>
+    <t>钓者挑战、排行榜等结算背景图</t>
+  </si>
+  <si>
+    <t>U16_MainStage_Book.unity</t>
+  </si>
+  <si>
+    <t>新主线线索簿背景图</t>
+  </si>
+  <si>
+    <t>U17_MainStage_Chest.unity</t>
+  </si>
+  <si>
+    <t>新主线渔具补给（抽奖）背景图</t>
+  </si>
+  <si>
+    <t>U18_SeaFishing_Home.unity</t>
+  </si>
+  <si>
+    <t>XXXX布吉岛啥玩意</t>
+  </si>
+  <si>
+    <t>U19_MainStage_Rogue.unity</t>
+  </si>
+  <si>
+    <t>巨物挑战背景图</t>
   </si>
   <si>
     <t>资源主类别</t>
@@ -3800,10 +3890,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:G564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B2" sqref="B2:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3817,22 +3907,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1120</v>
+        <v>1150</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1121</v>
+        <v>1151</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1122</v>
+        <v>1152</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1123</v>
+        <v>1153</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1124</v>
+        <v>1154</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1125</v>
+        <v>1155</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -7672,7 +7762,7 @@
         <v>596</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7681,10 +7771,10 @@
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7693,10 +7783,10 @@
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7705,26 +7795,26 @@
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>550</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7733,10 +7823,10 @@
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7745,10 +7835,10 @@
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7757,10 +7847,10 @@
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7769,10 +7859,10 @@
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7781,10 +7871,10 @@
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7793,10 +7883,10 @@
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7805,10 +7895,10 @@
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7817,10 +7907,10 @@
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,10 +7919,10 @@
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7841,10 +7931,10 @@
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7853,10 +7943,10 @@
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7865,10 +7955,10 @@
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7877,10 +7967,10 @@
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7889,10 +7979,10 @@
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7901,10 +7991,10 @@
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7913,10 +8003,10 @@
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7925,10 +8015,10 @@
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7937,10 +8027,10 @@
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7949,10 +8039,10 @@
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7961,10 +8051,10 @@
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7973,10 +8063,10 @@
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7985,10 +8075,10 @@
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7997,10 +8087,10 @@
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8009,10 +8099,10 @@
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8021,10 +8111,10 @@
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8033,10 +8123,10 @@
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,10 +8135,10 @@
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8057,10 +8147,10 @@
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8069,10 +8159,10 @@
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8081,10 +8171,10 @@
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8093,10 +8183,10 @@
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,10 +8195,10 @@
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8117,10 +8207,10 @@
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8129,10 +8219,10 @@
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="1" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8141,30 +8231,30 @@
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="1" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>548</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8173,10 +8263,10 @@
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="1" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8185,10 +8275,10 @@
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="1" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8197,10 +8287,10 @@
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="1" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8209,10 +8299,10 @@
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="1" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8221,10 +8311,10 @@
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="1" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8233,10 +8323,10 @@
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="1" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8245,10 +8335,10 @@
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8257,10 +8347,10 @@
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="1" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8269,10 +8359,10 @@
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8281,10 +8371,10 @@
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8293,10 +8383,10 @@
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8305,26 +8395,22 @@
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="1" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
-      <c r="C345" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>669</v>
-      </c>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
       <c r="E345" s="1" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8333,42 +8419,38 @@
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="1" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
-      <c r="C347" s="5"/>
-      <c r="D347" s="5"/>
+      <c r="C347" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>676</v>
+      </c>
       <c r="E347" s="1" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
       <c r="E348" s="1" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8377,22 +8459,30 @@
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="5"/>
-      <c r="B350" s="5"/>
-      <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
+      <c r="A350" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>716</v>
+      </c>
       <c r="E350" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8401,10 +8491,10 @@
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8413,10 +8503,10 @@
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8425,10 +8515,10 @@
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8437,10 +8527,10 @@
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="1" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8449,10 +8539,10 @@
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8461,10 +8551,10 @@
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8473,10 +8563,10 @@
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8485,10 +8575,10 @@
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8497,10 +8587,10 @@
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8509,10 +8599,10 @@
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8521,10 +8611,10 @@
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8533,10 +8623,10 @@
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8545,10 +8635,10 @@
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8557,10 +8647,10 @@
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8569,10 +8659,10 @@
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8581,10 +8671,10 @@
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8593,10 +8683,10 @@
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8605,10 +8695,10 @@
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,10 +8707,10 @@
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8629,10 +8719,10 @@
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8641,10 +8731,10 @@
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8653,10 +8743,10 @@
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8665,10 +8755,10 @@
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8677,10 +8767,10 @@
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8689,10 +8779,10 @@
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8701,10 +8791,10 @@
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8713,10 +8803,10 @@
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8725,10 +8815,10 @@
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8737,10 +8827,10 @@
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8749,10 +8839,10 @@
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8761,10 +8851,10 @@
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8773,10 +8863,10 @@
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8785,10 +8875,10 @@
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8797,10 +8887,10 @@
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8809,10 +8899,10 @@
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8821,10 +8911,10 @@
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8833,10 +8923,10 @@
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8845,10 +8935,10 @@
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8857,10 +8947,10 @@
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8869,10 +8959,10 @@
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,10 +8971,10 @@
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8893,10 +8983,10 @@
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8905,10 +8995,10 @@
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="1" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8917,10 +9007,10 @@
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="1" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8929,30 +9019,22 @@
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="1" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="B396" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="D396" s="4" t="s">
-        <v>799</v>
-      </c>
+      <c r="A396" s="5"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
       <c r="E396" s="1" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8961,22 +9043,30 @@
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="1" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="5"/>
-      <c r="B398" s="5"/>
-      <c r="C398" s="5"/>
-      <c r="D398" s="5"/>
+      <c r="A398" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>815</v>
+      </c>
       <c r="E398" s="1" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8985,10 +9075,10 @@
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,10 +9087,10 @@
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="1" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9009,10 +9099,10 @@
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="1" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9021,10 +9111,10 @@
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="1" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9033,10 +9123,10 @@
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="1" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9045,10 +9135,10 @@
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="F404" s="3" t="s">
-        <v>817</v>
+        <v>828</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9057,10 +9147,10 @@
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="1" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9069,10 +9159,10 @@
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>821</v>
+        <v>832</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9081,10 +9171,10 @@
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="1" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9093,10 +9183,10 @@
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="1" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9105,10 +9195,10 @@
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="1" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9117,10 +9207,10 @@
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="1" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9129,10 +9219,10 @@
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="1" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9141,10 +9231,10 @@
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="1" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9153,10 +9243,10 @@
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9165,10 +9255,10 @@
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="1" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9177,10 +9267,10 @@
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="1" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9189,10 +9279,10 @@
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="1" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9201,10 +9291,10 @@
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="1" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9213,10 +9303,10 @@
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="1" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9225,10 +9315,10 @@
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="1" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9237,10 +9327,10 @@
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="1" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9249,10 +9339,10 @@
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="1" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9261,10 +9351,10 @@
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9273,10 +9363,10 @@
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9285,10 +9375,10 @@
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="1" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9297,10 +9387,10 @@
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9309,10 +9399,10 @@
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="1" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9321,10 +9411,10 @@
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="1" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9333,10 +9423,10 @@
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="1" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9345,10 +9435,10 @@
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="1" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9357,10 +9447,10 @@
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="1" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9369,10 +9459,10 @@
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="1" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9381,10 +9471,10 @@
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="1" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9393,10 +9483,10 @@
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="1" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9405,30 +9495,22 @@
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="1" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="B435" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="D435" s="4" t="s">
-        <v>880</v>
-      </c>
+      <c r="A435" s="5"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5"/>
       <c r="E435" s="1" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9437,22 +9519,30 @@
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="1" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="5"/>
-      <c r="B437" s="5"/>
-      <c r="C437" s="5"/>
-      <c r="D437" s="5"/>
+      <c r="A437" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="E437" s="1" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9461,10 +9551,10 @@
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="1" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9473,10 +9563,10 @@
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="1" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9485,10 +9575,10 @@
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="1" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9497,10 +9587,10 @@
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="1" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9509,10 +9599,10 @@
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="1" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9521,10 +9611,10 @@
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="1" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9533,10 +9623,10 @@
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="1" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9545,10 +9635,10 @@
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="1" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9557,10 +9647,10 @@
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="1" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9569,10 +9659,10 @@
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="1" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9581,10 +9671,10 @@
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="1" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9593,10 +9683,10 @@
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="1" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9605,10 +9695,10 @@
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="1" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9617,10 +9707,10 @@
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="1" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9629,10 +9719,10 @@
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="1" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9641,10 +9731,10 @@
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="1" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9653,10 +9743,10 @@
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="1" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9665,10 +9755,10 @@
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="1" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9677,10 +9767,10 @@
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="1" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9689,10 +9779,10 @@
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="1" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9701,10 +9791,10 @@
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="1" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9713,10 +9803,10 @@
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="1" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9725,10 +9815,10 @@
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="1" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9737,10 +9827,10 @@
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="1" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9749,10 +9839,10 @@
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="1" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9761,10 +9851,10 @@
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="1" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9773,10 +9863,10 @@
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="1" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9785,10 +9875,10 @@
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="1" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9797,10 +9887,10 @@
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="1" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9809,10 +9899,10 @@
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="1" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9821,10 +9911,10 @@
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="1" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9833,10 +9923,10 @@
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="1" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9845,10 +9935,10 @@
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="1" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9857,10 +9947,10 @@
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="1" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9869,10 +9959,10 @@
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="1" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9881,10 +9971,10 @@
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="1" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9893,10 +9983,10 @@
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="1" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9905,10 +9995,10 @@
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="1" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9917,10 +10007,10 @@
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="1" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9929,10 +10019,10 @@
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="1" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9941,10 +10031,10 @@
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="1" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9953,10 +10043,10 @@
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="1" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9965,10 +10055,10 @@
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="1" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9977,10 +10067,10 @@
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="1" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9989,10 +10079,10 @@
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="1" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10001,10 +10091,10 @@
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="1" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10013,10 +10103,10 @@
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="1" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10025,10 +10115,10 @@
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="1" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10037,10 +10127,10 @@
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="1" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10049,10 +10139,10 @@
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="1" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10061,10 +10151,10 @@
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="1" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10073,10 +10163,10 @@
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="1" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10085,10 +10175,10 @@
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="1" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10097,10 +10187,10 @@
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="1" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10109,10 +10199,10 @@
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="1" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10121,10 +10211,10 @@
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="1" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10133,10 +10223,10 @@
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="1" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10145,10 +10235,10 @@
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="1" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10157,10 +10247,10 @@
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="1" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10169,10 +10259,10 @@
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="1" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10181,10 +10271,10 @@
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="1" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10193,10 +10283,10 @@
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="1" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10205,10 +10295,10 @@
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="1" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10217,10 +10307,10 @@
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="1" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10229,10 +10319,10 @@
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="1" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10241,10 +10331,10 @@
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="1" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10253,10 +10343,10 @@
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="1" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10265,10 +10355,10 @@
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="1" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10277,10 +10367,10 @@
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="1" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10289,10 +10379,10 @@
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="1" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10301,10 +10391,10 @@
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="1" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10313,10 +10403,10 @@
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="1" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10325,10 +10415,10 @@
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="1" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10337,10 +10427,10 @@
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="1" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10349,10 +10439,10 @@
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="1" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10361,10 +10451,10 @@
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="1" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10373,10 +10463,10 @@
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="1" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10385,10 +10475,10 @@
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="1" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10397,10 +10487,10 @@
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="1" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10409,10 +10499,10 @@
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="1" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10421,10 +10511,10 @@
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="1" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10433,10 +10523,10 @@
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="1" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10445,10 +10535,10 @@
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="1" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10457,10 +10547,10 @@
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="1" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10469,10 +10559,10 @@
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="1" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10481,10 +10571,10 @@
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="1" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10493,10 +10583,10 @@
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="1" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10505,10 +10595,10 @@
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="1" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10517,10 +10607,10 @@
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="1" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10529,10 +10619,10 @@
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="1" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10541,10 +10631,10 @@
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="1" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10553,10 +10643,10 @@
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="1" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10565,10 +10655,10 @@
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="1" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10577,10 +10667,10 @@
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="1" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10589,10 +10679,10 @@
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="1" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10601,10 +10691,10 @@
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="1" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10613,10 +10703,10 @@
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="1" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10625,10 +10715,10 @@
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="1" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10637,10 +10727,10 @@
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="1" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10649,10 +10739,10 @@
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="1" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10661,10 +10751,10 @@
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="1" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10673,10 +10763,10 @@
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="1" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10685,10 +10775,10 @@
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="1" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10697,10 +10787,10 @@
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="1" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1086</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10709,10 +10799,10 @@
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="1" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10721,10 +10811,10 @@
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="1" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10733,10 +10823,10 @@
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="1" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10745,10 +10835,10 @@
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="1" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1099</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10757,10 +10847,10 @@
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="1" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10769,10 +10859,10 @@
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="1" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10781,10 +10871,10 @@
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="1" t="s">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1105</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10793,10 +10883,10 @@
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="1" t="s">
-        <v>1106</v>
+        <v>1120</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10805,10 +10895,10 @@
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="1" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10817,10 +10907,10 @@
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="1" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1099</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10829,10 +10919,10 @@
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="1" t="s">
-        <v>1111</v>
+        <v>1125</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1099</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10841,10 +10931,10 @@
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="1" t="s">
-        <v>1112</v>
+        <v>1127</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1113</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10853,10 +10943,10 @@
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="1" t="s">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1115</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10865,10 +10955,10 @@
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="1" t="s">
-        <v>1116</v>
+        <v>1131</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10877,27 +10967,123 @@
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="1" t="s">
-        <v>1118</v>
+        <v>1132</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1119</v>
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="5"/>
+      <c r="B557" s="5"/>
+      <c r="C557" s="5"/>
+      <c r="D557" s="5"/>
+      <c r="E557" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="5"/>
+      <c r="B558" s="5"/>
+      <c r="C558" s="5"/>
+      <c r="D558" s="5"/>
+      <c r="E558" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="5"/>
+      <c r="B559" s="5"/>
+      <c r="C559" s="5"/>
+      <c r="D559" s="5"/>
+      <c r="E559" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="5"/>
+      <c r="B560" s="5"/>
+      <c r="C560" s="5"/>
+      <c r="D560" s="5"/>
+      <c r="E560" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="5"/>
+      <c r="B561" s="5"/>
+      <c r="C561" s="5"/>
+      <c r="D561" s="5"/>
+      <c r="E561" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="5"/>
+      <c r="B562" s="5"/>
+      <c r="C562" s="5"/>
+      <c r="D562" s="5"/>
+      <c r="E562" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="5"/>
+      <c r="B563" s="5"/>
+      <c r="C563" s="5"/>
+      <c r="D563" s="5"/>
+      <c r="E563" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="5"/>
+      <c r="B564" s="5"/>
+      <c r="C564" s="5"/>
+      <c r="D564" s="5"/>
+      <c r="E564" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A348:A395"/>
-    <mergeCell ref="C435:C556"/>
+    <mergeCell ref="A350:A397"/>
+    <mergeCell ref="C437:C564"/>
     <mergeCell ref="C147:C149"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C119:C127"/>
     <mergeCell ref="D58:D64"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D435:D556"/>
+    <mergeCell ref="D437:D564"/>
     <mergeCell ref="C281:C295"/>
     <mergeCell ref="A2:A269"/>
     <mergeCell ref="D112:D118"/>
-    <mergeCell ref="A396:A434"/>
+    <mergeCell ref="A398:A436"/>
     <mergeCell ref="C44:C50"/>
     <mergeCell ref="C79:C85"/>
     <mergeCell ref="C8:C10"/>
@@ -10914,12 +11100,12 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C95:C104"/>
     <mergeCell ref="C225:C231"/>
-    <mergeCell ref="B435:B556"/>
+    <mergeCell ref="B437:B564"/>
     <mergeCell ref="D232:D241"/>
     <mergeCell ref="C232:C241"/>
-    <mergeCell ref="A332:A347"/>
+    <mergeCell ref="A332:A349"/>
     <mergeCell ref="D197:D203"/>
-    <mergeCell ref="B332:B347"/>
+    <mergeCell ref="B332:B349"/>
     <mergeCell ref="D128:D134"/>
     <mergeCell ref="C159:C161"/>
     <mergeCell ref="D138:D140"/>
@@ -10931,12 +11117,12 @@
     <mergeCell ref="D169:D175"/>
     <mergeCell ref="D44:D50"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C345:C347"/>
+    <mergeCell ref="C347:C349"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="D256:D262"/>
     <mergeCell ref="C263:C269"/>
-    <mergeCell ref="C332:C344"/>
-    <mergeCell ref="B396:B434"/>
+    <mergeCell ref="C332:C346"/>
+    <mergeCell ref="B398:B436"/>
     <mergeCell ref="D36:D43"/>
     <mergeCell ref="D162:D168"/>
     <mergeCell ref="D119:D127"/>
@@ -10946,14 +11132,14 @@
     <mergeCell ref="D29:D35"/>
     <mergeCell ref="C183:C189"/>
     <mergeCell ref="D218:D224"/>
-    <mergeCell ref="D332:D344"/>
+    <mergeCell ref="D332:D346"/>
     <mergeCell ref="C51:C57"/>
     <mergeCell ref="D147:D149"/>
     <mergeCell ref="D153:D155"/>
-    <mergeCell ref="B348:B395"/>
-    <mergeCell ref="D396:D434"/>
-    <mergeCell ref="C396:C434"/>
-    <mergeCell ref="A435:A556"/>
+    <mergeCell ref="B350:B397"/>
+    <mergeCell ref="D398:D436"/>
+    <mergeCell ref="C398:C436"/>
+    <mergeCell ref="A437:A564"/>
     <mergeCell ref="C204:C210"/>
     <mergeCell ref="D135:D137"/>
     <mergeCell ref="C156:C158"/>
@@ -10975,7 +11161,7 @@
     <mergeCell ref="B135:B269"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="C197:C203"/>
-    <mergeCell ref="D345:D347"/>
+    <mergeCell ref="D347:D349"/>
     <mergeCell ref="C256:C262"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D190:D196"/>
@@ -10998,7 +11184,7 @@
     <mergeCell ref="D51:D57"/>
     <mergeCell ref="C176:C182"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C348:C395"/>
+    <mergeCell ref="C350:C397"/>
     <mergeCell ref="D270:D280"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C29:C35"/>
@@ -11007,7 +11193,7 @@
     <mergeCell ref="C296:C331"/>
     <mergeCell ref="D263:D269"/>
     <mergeCell ref="C242:C248"/>
-    <mergeCell ref="D348:D395"/>
+    <mergeCell ref="D350:D397"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
